--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -78,7 +78,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>null (mailto:ehaas@healthedatainc.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -990,7 +990,7 @@
 </t>
   </si>
   <si>
-    <t>When the resource version last changed</t>
+    <t>When the resource last changed</t>
   </si>
   <si>
     <t>When the resource last changed - e.g. when the version changed.</t>
